--- a/resumes_export.xlsx
+++ b/resumes_export.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,9 +448,9 @@
     <col width="15.2" customWidth="1" min="10" max="10"/>
     <col width="16.4" customWidth="1" min="11" max="11"/>
     <col width="22.4" customWidth="1" min="12" max="12"/>
-    <col width="51.2" customWidth="1" min="13" max="13"/>
+    <col width="52.4" customWidth="1" min="13" max="13"/>
     <col width="41.6" customWidth="1" min="14" max="14"/>
-    <col width="16.4" customWidth="1" min="15" max="15"/>
+    <col width="17.6" customWidth="1" min="15" max="15"/>
     <col width="40.4" customWidth="1" min="16" max="16"/>
     <col width="17.6" customWidth="1" min="17" max="17"/>
     <col width="60" customWidth="1" min="18" max="18"/>
@@ -689,132 +689,250 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>857460729</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>jalil iranizadeh</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jadid</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>در حال تحصیل</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ارشد</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>شهرسازی</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>bahonar</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>shiraz</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>09392247463</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>09224180580</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>مبتدی</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>GIS Pro: متوسط
+GIS: متوسط
+AutoCAD: پیشرفته</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>ندارم</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>کارشناس طراحی</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>بله</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2025-12-02 19:37:10</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>بله</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>fan ava</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>ندارم</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>shiraz</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>5884300880</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>mostafa harati</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>alirezaei</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>فارغ‌التحصیل</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>کاردانی</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>نقشه‌برداری</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>bahonar kerman</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>14.0</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>kerman</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>09392247463</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>09224180580</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>متوسط</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>AutoCAD: مبتدی
 GIS: مبتدی
 python: پیشرفته</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>دارم: python developer 
 im sinure</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>کارشناس ارشد</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>i can make the bot for any think</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>بله</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>uploads\5884300880_mostafa_harati\resume_5884300880_1764688731.zip</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>2025-12-02 18:46:53</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>بله</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>iran mohandes yar</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>nadarm</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>kerman</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>resume_5884300880_1764688731.zip
 resume_5884300880_1764688731.zip
 resume_5884300880_1764688731.zip</t>
         </is>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y4" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/resumes_export.xlsx
+++ b/resumes_export.xlsx
@@ -438,9 +438,9 @@
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="23.6" customWidth="1" min="2" max="2"/>
-    <col width="15.2" customWidth="1" min="3" max="3"/>
+    <col width="16.4" customWidth="1" min="3" max="3"/>
     <col width="16.4" customWidth="1" min="4" max="4"/>
-    <col width="15.2" customWidth="1" min="5" max="5"/>
+    <col width="17.6" customWidth="1" min="5" max="5"/>
     <col width="15.2" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="10.4" customWidth="1" min="8" max="8"/>
@@ -448,15 +448,15 @@
     <col width="15.2" customWidth="1" min="10" max="10"/>
     <col width="16.4" customWidth="1" min="11" max="11"/>
     <col width="22.4" customWidth="1" min="12" max="12"/>
-    <col width="52.4" customWidth="1" min="13" max="13"/>
-    <col width="41.6" customWidth="1" min="14" max="14"/>
+    <col width="60" customWidth="1" min="13" max="13"/>
+    <col width="12.8" customWidth="1" min="14" max="14"/>
     <col width="17.6" customWidth="1" min="15" max="15"/>
-    <col width="40.4" customWidth="1" min="16" max="16"/>
+    <col width="16.4" customWidth="1" min="16" max="16"/>
     <col width="17.6" customWidth="1" min="17" max="17"/>
     <col width="60" customWidth="1" min="18" max="18"/>
     <col width="24.8" customWidth="1" min="19" max="19"/>
     <col width="17.6" customWidth="1" min="20" max="20"/>
-    <col width="22.4" customWidth="1" min="21" max="21"/>
+    <col width="21.2" customWidth="1" min="21" max="21"/>
     <col width="15.2" customWidth="1" min="22" max="22"/>
     <col width="18.8" customWidth="1" min="23" max="23"/>
     <col width="60" customWidth="1" min="24" max="24"/>
@@ -582,7 +582,7 @@
       </c>
       <c r="X1" s="2" t="inlineStr">
         <is>
-          <t>فایل‌های آپلود شده</t>
+          <t>uploaded_files</t>
         </is>
       </c>
       <c r="Y1" s="2" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>کارشناسی</t>
+          <t>کارشناسی ارشد</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jalil iranizadeh</t>
+          <t>امیرحسین احمدی</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>jadid</t>
+          <t>milafimilafi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -708,94 +708,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ارشد</t>
+          <t>کارشناسی</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>شهرسازی</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>bahonar</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>19.75</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>shiraz</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>09392247463</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>09224180580</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>مبتدی</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>GIS Pro: متوسط
-GIS: متوسط
-AutoCAD: پیشرفته</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>ندارم</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>کارشناس طراحی</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>بله</t>
+          <t>عمران</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2025-12-02 19:37:10</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>بله</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>fan ava</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>ندارم</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>shiraz</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>aaa</t>
+          <t>2025-12-07 16:30:01</t>
         </is>
       </c>
       <c r="Y3" t="n">
@@ -811,12 +734,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mostafa harati</t>
+          <t>Eshaq firoozi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>alirezaei</t>
+          <t>firoozi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -826,65 +749,60 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>کاردانی</t>
+          <t>دکتری</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>نقشه‌برداری</t>
+          <t>ممیزی املاک</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>bahonar kerman</t>
+          <t>زاهدان آزاد</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>kerman</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>09392247463</t>
+          <t>09112223333</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>09224180580</t>
+          <t>09225555666</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>متوسط</t>
+          <t>پیشرفته</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>AutoCAD: مبتدی
-GIS: مبتدی
-python: پیشرفته</t>
+          <t>GIS: پیشرفته
+3D Max: پیشرفته
+AutoCAD: پیشرفته
+Metashape: پیشرفته</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>دارم: python developer 
-im sinure</t>
+          <t>ندارم</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>کارشناس ارشد</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>i can make the bot for any think</t>
+          <t>کارشناس طراحی</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -894,39 +812,25 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>uploads\5884300880_mostafa_harati\resume_5884300880_1764688731.zip</t>
+          <t>uploads\5884300880_Eshaq_firoozi\resume_5884300880_1765113561.jpg</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2025-12-02 18:46:53</t>
+          <t>2025-12-07 16:47:33</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>بله</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>iran mohandes yar</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>nadarm</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>kerman</t>
+          <t>خیر</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>resume_5884300880_1764688731.zip
-resume_5884300880_1764688731.zip
-resume_5884300880_1764688731.zip</t>
+          <t>resume_5884300880_1765113544.jpg
+resume_5884300880_1765113561.jpg
+resume_5884300880_1765113561.jpg
+resume_5884300880_1765113561.jpg</t>
         </is>
       </c>
       <c r="Y4" t="n">

--- a/resumes_export.xlsx
+++ b/resumes_export.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,20 +448,18 @@
     <col width="15.2" customWidth="1" min="10" max="10"/>
     <col width="16.4" customWidth="1" min="11" max="11"/>
     <col width="22.4" customWidth="1" min="12" max="12"/>
-    <col width="60" customWidth="1" min="13" max="13"/>
+    <col width="11.6" customWidth="1" min="13" max="13"/>
     <col width="12.8" customWidth="1" min="14" max="14"/>
-    <col width="17.6" customWidth="1" min="15" max="15"/>
+    <col width="16.4" customWidth="1" min="15" max="15"/>
     <col width="16.4" customWidth="1" min="16" max="16"/>
     <col width="17.6" customWidth="1" min="17" max="17"/>
-    <col width="60" customWidth="1" min="18" max="18"/>
-    <col width="24.8" customWidth="1" min="19" max="19"/>
-    <col width="17.6" customWidth="1" min="20" max="20"/>
-    <col width="21.2" customWidth="1" min="21" max="21"/>
-    <col width="15.2" customWidth="1" min="22" max="22"/>
-    <col width="18.8" customWidth="1" min="23" max="23"/>
-    <col width="60" customWidth="1" min="24" max="24"/>
-    <col width="22.4" customWidth="1" min="25" max="25"/>
-    <col width="6.8" customWidth="1" min="26" max="26"/>
+    <col width="32" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="18.8" customWidth="1" min="20" max="20"/>
+    <col width="24.8" customWidth="1" min="21" max="21"/>
+    <col width="18.8" customWidth="1" min="22" max="22"/>
+    <col width="22.4" customWidth="1" min="23" max="23"/>
+    <col width="6.8" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -552,45 +550,35 @@
       </c>
       <c r="R1" s="2" t="inlineStr">
         <is>
+          <t>پروانه اشتغال نظام مهندسی</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>شهر صدور پروانه</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
           <t>مسیر نمونه‌کار</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>تاریخ ثبت</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>عضویت سازمانی</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>نام سازمان/انجمن</t>
-        </is>
-      </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t>شماره عضویت</t>
+          <t>uploaded_files</t>
         </is>
       </c>
       <c r="W1" s="2" t="inlineStr">
         <is>
-          <t>شهر صدور عضویت</t>
+          <t>اطلاع‌رسانی ادمین</t>
         </is>
       </c>
       <c r="X1" s="2" t="inlineStr">
-        <is>
-          <t>uploaded_files</t>
-        </is>
-      </c>
-      <c r="Y1" s="2" t="inlineStr">
-        <is>
-          <t>اطلاع‌رسانی ادمین</t>
-        </is>
-      </c>
-      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>بلاک</t>
         </is>
@@ -670,20 +658,15 @@
           <t>بله</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>2025-12-02 18:23:12</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>خیر</t>
-        </is>
-      </c>
-      <c r="Y2" t="n">
+      <c r="W2" t="n">
         <v>0</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="X2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -716,15 +699,15 @@
           <t>عمران</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>2025-12-07 16:30:01</t>
         </is>
       </c>
-      <c r="Y3" t="n">
+      <c r="W3" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="X3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -734,75 +717,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eshaq firoozi</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>firoozi</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>فارغ‌التحصیل</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>دکتری</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ممیزی املاک</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>زاهدان آزاد</t>
+          <t>تایید ویرایش</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>یزد</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>09112223333</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>09225555666</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>پیشرفته</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>GIS: پیشرفته
-3D Max: پیشرفته
-AutoCAD: پیشرفته
-Metashape: پیشرفته</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>ندارم</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>کارشناس طراحی</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -812,31 +732,23 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>uploads\5884300880_Eshaq_firoozi\resume_5884300880_1765113561.jpg</t>
+          <t>بله</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2025-12-07 16:47:33</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>خیر</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>resume_5884300880_1765113544.jpg
-resume_5884300880_1765113561.jpg
-resume_5884300880_1765113561.jpg
-resume_5884300880_1765113561.jpg</t>
-        </is>
-      </c>
-      <c r="Y4" t="n">
+          <t>کرمان</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>2025-12-07 18:47:46</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
         <v>0</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="X4" t="n">
         <v>0</v>
       </c>
     </row>
